--- a/PropositionsFormation/SequenceTreillis/Sequence_Treillis.xlsx
+++ b/PropositionsFormation/SequenceTreillis/Sequence_Treillis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046FE3E5-21EF-4697-94B8-D39C8B35E79D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AAE9EA-9E3F-4FD4-8609-C37EC0212AE3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,122 +94,154 @@
     <t>Conception et réalisation d'une maquette de pont à structure treillis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kit de construction au choix 
+    <t>Manipulation afin de réaliser différentes constructions de poutres en treillis. Utilisation du logiciel Bridge Building Game.</t>
+  </si>
+  <si>
+    <t>Réalisation de la structure treillis uniquement.</t>
+  </si>
+  <si>
+    <t>Investigation</t>
+  </si>
+  <si>
+    <t>Résolution de problème</t>
+  </si>
+  <si>
+    <t>ModelSmart3D ?
+Logiciel Bridge Building Game</t>
+  </si>
+  <si>
+    <t>La solidité ou résistance à l'effort d'un pont ou d'un ouvrage est satisfaisante si la structure est suffisamment rigide. Tous les assemblages testés ne permettent pas la stabilité du tablier. Un seul assemblage élémentaire simple s'avère très stable : le triangle.</t>
+  </si>
+  <si>
+    <t>La simulation numérique permet de montrer comment les efforts se répartissent dans le pont. Les éléments de ponts ou de bâtiments subissent principalement de la flexion de la compression ou de la traction.</t>
+  </si>
+  <si>
+    <t>Vérification en charge, de la résistance à la flexion de la maquette du pont.</t>
+  </si>
+  <si>
+    <t>Synthèse</t>
+  </si>
+  <si>
+    <t>Le choix de la structure dite «en treillis» repose sur les paramètres suivants : charge et portée du tablier du pont, formes géométriques de la structure treillis. Ces paramètres doivent garantir la stabilité d’une structure.</t>
+  </si>
+  <si>
+    <t>Matériel de fabrication du pont ?</t>
+  </si>
+  <si>
+    <t>CS 1.7</t>
+  </si>
+  <si>
+    <t>CT 2.4</t>
+  </si>
+  <si>
+    <t>CT 3.1</t>
+  </si>
+  <si>
+    <t>CT 5.1</t>
+  </si>
+  <si>
+    <t>Interpréter des résultats expérimentaux, en tirer une conclusion et la communiquer en argumentant.</t>
+  </si>
+  <si>
+    <t>Associer des solutions techniques à des fonctions.</t>
+  </si>
+  <si>
+    <t>Exprimer sa pensée à l’aide d’outils de description adaptés : croquis, schémas, graphes, diagrammes, tableaux (représentations non normées).</t>
+  </si>
+  <si>
+    <t>Simuler numériquement la structure et/ou le comportement d’un objet.</t>
+  </si>
+  <si>
+    <t>MSOST 1.1</t>
+  </si>
+  <si>
+    <t>OTSCIS 2.1</t>
+  </si>
+  <si>
+    <t>MSOST 2.2</t>
+  </si>
+  <si>
+    <t>Compétences</t>
+  </si>
+  <si>
+    <t>Thématiques au programme</t>
+  </si>
+  <si>
+    <t>Connaissances</t>
+  </si>
+  <si>
+    <t>Analyse fonctionnelle systémique.</t>
+  </si>
+  <si>
+    <t>Exprimer sa pensée à l’aide d’outils de description adaptés : croquis, schémas, graphes, diagrammes, tableaux.</t>
+  </si>
+  <si>
+    <t>Simuler numériquement la structure et/ou le comportement d’un objet. Interpréter le comportement de l’objet technique et le communiquer en argumentant.</t>
+  </si>
+  <si>
+    <t>Croquis à main levée. Différents schémas. Carte heuristique. Notion d’algorithme.</t>
+  </si>
+  <si>
+    <t>Notions d’écarts entre les attentes fixées par le cahier des charges et les résultats de la simulation.</t>
+  </si>
+  <si>
+    <t>Notions d’écarts entre les attentes fixées par le cahier des charges et les résultats de l’expérimentation.</t>
+  </si>
+  <si>
+    <t>Rendre une construction robuste et stable</t>
+  </si>
+  <si>
+    <t>Comment rendre indéformable une ossature ?</t>
+  </si>
+  <si>
+    <t>Réalisation du croquis d’un pont triangulé simple.</t>
+  </si>
+  <si>
+    <t>Interpréter des résultats expérimentaux et la communiquer en argumentant.</t>
+  </si>
+  <si>
+    <t>http://eduscol.education.fr/cid99549/ressources-technologie-c4.html
+http://techno-flash.com/animations/lesponts/les_ponts.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Accès Internet
+Kit de construction au choix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
  - Méccano
  - Banc d'essai - Ossatures triangulées (a4.fr - BE-PTRA - 67,59€ le kit)
  - Pont treillis (a4.fr - K-PTRA-10 - 69,50€ 10 kits)
  - Ossature treillis (a4.fr)
- - </t>
-  </si>
-  <si>
-    <t>Manipulation afin de réaliser différentes constructions de poutres en treillis. Utilisation du logiciel Bridge Building Game.</t>
-  </si>
-  <si>
-    <t>Réalisation de la structure treillis uniquement.</t>
-  </si>
-  <si>
-    <t>Investigation</t>
-  </si>
-  <si>
-    <t>Résolution de problème</t>
-  </si>
-  <si>
-    <t>ModelSmart3D ?
-Logiciel Bridge Building Game</t>
-  </si>
-  <si>
-    <t>La solidité ou résistance à l'effort d'un pont ou d'un ouvrage est satisfaisante si la structure est suffisamment rigide. Tous les assemblages testés ne permettent pas la stabilité du tablier. Un seul assemblage élémentaire simple s'avère très stable : le triangle.</t>
-  </si>
-  <si>
-    <t>La simulation numérique permet de montrer comment les efforts se répartissent dans le pont. Les éléments de ponts ou de bâtiments subissent principalement de la flexion de la compression ou de la traction.</t>
-  </si>
-  <si>
-    <t>Vérification en charge, de la résistance à la flexion de la maquette du pont.</t>
-  </si>
-  <si>
-    <t>Synthèse</t>
-  </si>
-  <si>
-    <t>Le choix de la structure dite «en treillis» repose sur les paramètres suivants : charge et portée du tablier du pont, formes géométriques de la structure treillis. Ces paramètres doivent garantir la stabilité d’une structure.</t>
-  </si>
-  <si>
-    <t>Matériel de fabrication du pont ?</t>
-  </si>
-  <si>
-    <t>CS 1.7</t>
-  </si>
-  <si>
-    <t>CT 2.4</t>
-  </si>
-  <si>
-    <t>CT 3.1</t>
-  </si>
-  <si>
-    <t>CT 5.1</t>
-  </si>
-  <si>
-    <t>Interpréter des résultats expérimentaux, en tirer une conclusion et la communiquer en argumentant.</t>
-  </si>
-  <si>
-    <t>Associer des solutions techniques à des fonctions.</t>
-  </si>
-  <si>
-    <t>Exprimer sa pensée à l’aide d’outils de description adaptés : croquis, schémas, graphes, diagrammes, tableaux (représentations non normées).</t>
-  </si>
-  <si>
-    <t>Simuler numériquement la structure et/ou le comportement d’un objet.</t>
-  </si>
-  <si>
-    <t>MSOST 1.1</t>
-  </si>
-  <si>
-    <t>OTSCIS 2.1</t>
-  </si>
-  <si>
-    <t>MSOST 2.2</t>
-  </si>
-  <si>
-    <t>Compétences</t>
-  </si>
-  <si>
-    <t>Thématiques au programme</t>
-  </si>
-  <si>
-    <t>Connaissances</t>
-  </si>
-  <si>
-    <t>Analyse fonctionnelle systémique.</t>
-  </si>
-  <si>
-    <t>Exprimer sa pensée à l’aide d’outils de description adaptés : croquis, schémas, graphes, diagrammes, tableaux.</t>
-  </si>
-  <si>
-    <t>Simuler numériquement la structure et/ou le comportement d’un objet. Interpréter le comportement de l’objet technique et le communiquer en argumentant.</t>
-  </si>
-  <si>
-    <t>Croquis à main levée. Différents schémas. Carte heuristique. Notion d’algorithme.</t>
-  </si>
-  <si>
-    <t>Notions d’écarts entre les attentes fixées par le cahier des charges et les résultats de la simulation.</t>
-  </si>
-  <si>
-    <t>Notions d’écarts entre les attentes fixées par le cahier des charges et les résultats de l’expérimentation.</t>
-  </si>
-  <si>
-    <t>Rendre une construction robuste et stable</t>
-  </si>
-  <si>
-    <t>Comment rendre indéformable une ossature ?</t>
-  </si>
-  <si>
-    <t>Réalisation du croquis d’un pont triangulé simple.</t>
-  </si>
-  <si>
-    <t>Interpréter des résultats expérimentaux et la communiquer en argumentant.</t>
-  </si>
-  <si>
-    <t>http://eduscol.education.fr/cid99549/ressources-technologie-c4.html
-http://techno-flash.com/animations/lesponts/les_ponts.html</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Règle, équerre, crayon</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -714,29 +746,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -746,29 +763,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -777,131 +773,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1186,7 +1224,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1225,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1240,286 +1280,288 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41" t="s">
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="1:7" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="34" t="s">
+      <c r="G8" s="53"/>
+    </row>
+    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="26" t="s">
+      <c r="E9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="F9" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="53"/>
+    </row>
+    <row r="10" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F10" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
+      <c r="B13" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="29"/>
+      <c r="F15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="51" t="s">
+      <c r="E18" s="35"/>
+      <c r="F18" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="37"/>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="65"/>
+      <c r="D21" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="52"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="56"/>
-    </row>
-    <row r="20" spans="1:7" s="19" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="61"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="48" t="s">
+      <c r="E21" s="41"/>
+      <c r="F21" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="41"/>
+    </row>
+    <row r="22" spans="1:7" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="49"/>
-    </row>
-    <row r="22" spans="1:7" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="53" t="s">
+      <c r="C22" s="43"/>
+      <c r="D22" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="53" t="s">
+      <c r="E22" s="43"/>
+      <c r="F22" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="53" t="s">
+      <c r="G22" s="43"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="63"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="54"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="16" t="s">
+      <c r="B24" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F8:G8"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
@@ -1536,8 +1578,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" display="http://eduscol.education.fr/cid99549/ressources-technologie-c4.html" xr:uid="{8449A73B-63E5-4962-AC13-61D0A2A7656B}"/>
